--- a/ig/nr-add-profiles/StructureDefinition-gap-fr-schedule.xlsx
+++ b/ig/nr-add-profiles/StructureDefinition-gap-fr-schedule.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T08:58:24+00:00</t>
+    <t>2023-10-09T16:11:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
